--- a/AP_TestData_Login_Nav_Logout.xlsx
+++ b/AP_TestData_Login_Nav_Logout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A822DA-4C44-46AC-ACE9-983DAC75A1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD96C28-C129-4017-94E8-53DE835B8486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="3810" windowWidth="11520" windowHeight="6390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UserName</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.login.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>AUTOMATION_TESTING</t>
-  </si>
-  <si>
-    <t>Oracle123</t>
   </si>
 </sst>
 </file>
@@ -631,17 +622,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -652,25 +643,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://edrx.login.us2.oraclecloud.com/" xr:uid="{B3B2D898-4941-490C-9330-9D3A076CC9A2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -680,12 +660,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
